--- a/RUDN/Importance/Varible_muatal_reg_in_South America.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_South America.xlsx
@@ -40,12 +40,12 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
@@ -226,15 +226,15 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Female population 80+</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
@@ -301,6 +301,9 @@
     <t>Number of maternal deaths</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
@@ -310,24 +313,21 @@
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
@@ -385,28 +385,31 @@
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
+    <t>Female population 65-69</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
@@ -418,9 +421,6 @@
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
@@ -451,27 +451,27 @@
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
@@ -502,18 +502,18 @@
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -556,15 +556,15 @@
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -604,12 +604,12 @@
     <t>Female population 00-04</t>
   </si>
   <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
@@ -670,27 +670,27 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
@@ -724,48 +724,48 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -775,12 +775,12 @@
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -793,30 +793,30 @@
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
@@ -835,63 +835,63 @@
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
@@ -913,45 +913,45 @@
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -994,6 +994,9 @@
     <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
@@ -1006,9 +1009,6 @@
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
@@ -1102,6 +1102,9 @@
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
@@ -1117,30 +1120,27 @@
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
@@ -2044,10 +2044,10 @@
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.928818955406846</v>
+        <v>1.92689587848377</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.807867372037487</v>
+        <v>1.806585320755436</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.748515150627571</v>
+        <v>1.749797201909622</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.630713576128517</v>
+        <v>1.630519425250155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.59219485225531</v>
+        <v>1.598209719740765</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.572070919560407</v>
+        <v>1.573573220678093</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.566331965201543</v>
+        <v>1.573330077069565</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.54338301006873</v>
+        <v>1.543463318421038</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523820553260818</v>
+        <v>1.52121038565065</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.482375220689919</v>
+        <v>1.487132354581669</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.383194108179123</v>
+        <v>1.383541978396903</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.322551448322143</v>
+        <v>1.31998734575804</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.288010775576682</v>
+        <v>1.288994290498816</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.273112018572552</v>
+        <v>1.268514032078901</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.268514032078901</v>
+        <v>1.268229026949447</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.248034560312849</v>
+        <v>1.246771230419488</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.165064911503447</v>
+        <v>1.160966296601984</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.144799023395673</v>
+        <v>1.144384242098538</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.14320941234617</v>
+        <v>1.143574641228721</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.140150475543054</v>
+        <v>1.1405454895142</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.139985230839393</v>
+        <v>1.140150475543054</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.134984919083275</v>
+        <v>1.132272451162328</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.122277289333844</v>
+        <v>1.121508058564613</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.074088760859634</v>
+        <v>1.07410369594544</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.031326788698691</v>
+        <v>1.028222210249999</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.028222210249999</v>
+        <v>1.025784314812523</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.025784314812523</v>
+        <v>1.025439177943433</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9933299397144471</v>
+        <v>0.9928171192016266</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9834388528671956</v>
+        <v>0.987296251076633</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.983433052314461</v>
+        <v>0.9834388528671956</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9799979430692276</v>
+        <v>0.983433052314461</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9790728078531896</v>
+        <v>0.9799979430692276</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9755083650002878</v>
+        <v>0.9739286946706174</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9521369832395337</v>
+        <v>0.9503970564996069</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9455568319041032</v>
+        <v>0.9473068421740587</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9431339659177076</v>
+        <v>0.9455568319041032</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9402593323892852</v>
+        <v>0.9409526306724669</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9378560826322064</v>
+        <v>0.9392801833332132</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9319451645305734</v>
+        <v>0.9310430591983601</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9291656050311496</v>
+        <v>0.925725354888423</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.8964749379559964</v>
+        <v>0.9055364429086663</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.8952990892982022</v>
+        <v>0.89807686707598</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8758549680928449</v>
+        <v>0.8762598263924404</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8647658022211315</v>
+        <v>0.8656205030758328</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8258199170283325</v>
+        <v>0.8275071720809719</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8222764872503578</v>
+        <v>0.8215861519446381</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8075597010363404</v>
+        <v>0.8043265378834286</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8043265378834286</v>
+        <v>0.8014453301147135</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8014453301147135</v>
+        <v>0.7997404024206369</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8000544155609259</v>
+        <v>0.7969367438118935</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.7997404024206369</v>
+        <v>0.7958177163218729</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.7971858209793847</v>
+        <v>0.7930821821033469</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.7930821821033469</v>
+        <v>0.7889115117709373</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.7758675702557514</v>
+        <v>0.7884250769894947</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.7709688499068359</v>
+        <v>0.7736168797697665</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.770199619137605</v>
+        <v>0.7709688499068359</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.7683279958903546</v>
+        <v>0.770199619137605</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.7635269538966538</v>
+        <v>0.7640184068881073</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.7549501423458858</v>
+        <v>0.7627644519955674</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.7512591893759129</v>
+        <v>0.7511851366779108</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.7087932467412266</v>
+        <v>0.7093793273273077</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.697814760892562</v>
+        <v>0.6962354301490137</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6962354301490137</v>
+        <v>0.6960901602533283</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6948663840295524</v>
+        <v>0.6909219878008481</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.6813819115037312</v>
+        <v>0.6811983324623125</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.6811983324623125</v>
+        <v>0.6784493064216486</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6759952985129165</v>
+        <v>0.6758076812521283</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6543173228581818</v>
+        <v>0.6551372393757728</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6520365152398298</v>
+        <v>0.6523885075060167</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6496196110675201</v>
+        <v>0.6498848630569101</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6459389883367288</v>
+        <v>0.6489826251965565</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6236931457162287</v>
+        <v>0.6241856106254509</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6232602486771186</v>
+        <v>0.6236931457162287</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6226471490869891</v>
+        <v>0.6232602486771186</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.6048265496029792</v>
+        <v>0.6051146101623175</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.6030789343055636</v>
+        <v>0.601730983300774</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.601730983300774</v>
+        <v>0.6014920737589531</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5807766424007568</v>
+        <v>0.5803633362828904</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5803633362828904</v>
+        <v>0.5789278600448808</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5789278600448808</v>
+        <v>0.5786292744688564</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5786292744688564</v>
+        <v>0.5781364663532074</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5781364663532074</v>
+        <v>0.5771715149980348</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5771715149980348</v>
+        <v>0.5767846784068387</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5767846784068387</v>
+        <v>0.5757823911913529</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5672489489603412</v>
+        <v>0.5666515036793589</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5666515036793589</v>
+        <v>0.5666189581174357</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5666189581174357</v>
+        <v>0.566196145047247</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.566196145047247</v>
+        <v>0.5660249845520715</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5660249845520715</v>
+        <v>0.5658468705157507</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5658468705157507</v>
+        <v>0.5642509781367844</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5642509781367844</v>
+        <v>0.5639306747663306</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5639306747663306</v>
+        <v>0.5628262176116348</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5628262176116348</v>
+        <v>0.5627534439608854</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5627534439608854</v>
+        <v>0.5622114604096371</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5622114604096371</v>
+        <v>0.5618013546723126</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5618013546723126</v>
+        <v>0.5617691809242571</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5617691809242571</v>
+        <v>0.5601903685290686</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5601903685290686</v>
+        <v>0.5596380337359026</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5536092444704914</v>
+        <v>0.55338504338422</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5437689640454908</v>
+        <v>0.5433315053293437</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5431630861388743</v>
+        <v>0.542964889599576</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.5389781462811669</v>
+        <v>0.5380492032603683</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5384764309472121</v>
+        <v>0.5378314600152172</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5379762116954545</v>
+        <v>0.5371259795330126</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5341744528054382</v>
+        <v>0.5371139829662432</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.5202776557702162</v>
+        <v>0.5222614689505554</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.51983306455028</v>
+        <v>0.5183918107288399</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.517537109874139</v>
+        <v>0.5177878259566397</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.5060378595216366</v>
+        <v>0.5056685578114326</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.5057753954182704</v>
+        <v>0.5038028678721017</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.5038028678721017</v>
+        <v>0.4882301205130899</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4882301205130899</v>
+        <v>0.484632781085129</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.484632781085129</v>
+        <v>0.4842819327568404</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4842819327568404</v>
+        <v>0.4842099851968019</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4842099851968019</v>
+        <v>0.4841314922611663</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4841314922611663</v>
+        <v>0.4833950487537807</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4833950487537807</v>
+        <v>0.4789879787987825</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4789879787987825</v>
+        <v>0.4726812597048329</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4733485375836497</v>
+        <v>0.4716613447579427</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4669736126548045</v>
+        <v>0.4670234821586967</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4660465299808321</v>
+        <v>0.4669736126548045</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.458789752657953</v>
+        <v>0.4589570558039788</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4583632673651352</v>
+        <v>0.4564204454746821</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.4418340331810874</v>
+        <v>0.4417513201951487</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.4412773682880953</v>
+        <v>0.4412660975075944</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.4402680152170309</v>
+        <v>0.4402076833919932</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.4402680152170309</v>
+        <v>0.4402076833919932</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4394956700318913</v>
+        <v>0.4390496508494119</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.4389736174058396</v>
+        <v>0.438733232790455</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.4387606336825667</v>
+        <v>0.4386284000469742</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.4299986742755815</v>
+        <v>0.4299122438520717</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4238062580005191</v>
+        <v>0.4262514435477618</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4229561650016933</v>
+        <v>0.422403630620076</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.422403630620076</v>
+        <v>0.4222677964620569</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.4198759317055156</v>
+        <v>0.4182391344488088</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.4083148991086849</v>
+        <v>0.4082136845337858</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3973332550401019</v>
+        <v>0.3975017512243071</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3959530392757262</v>
+        <v>0.3957779847240683</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3957080603132024</v>
+        <v>0.3956835262102008</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3823252517454316</v>
+        <v>0.3900175594377393</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3803330536972969</v>
+        <v>0.3803320255888105</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3769512596580733</v>
+        <v>0.3768628423282769</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.3723811647762594</v>
+        <v>0.3763966058453585</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.3676655707794805</v>
+        <v>0.3724764715160822</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3671232083799743</v>
+        <v>0.3676655707794805</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3655069557441051</v>
+        <v>0.3671232083799743</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3572566195917575</v>
+        <v>0.3644557622321605</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3531893756554851</v>
+        <v>0.3527732712920122</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3493594252273642</v>
+        <v>0.3495382650888477</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3443904466958052</v>
+        <v>0.3442988716042306</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.3408900857150892</v>
+        <v>0.3408523996774031</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3407484495734527</v>
+        <v>0.3407498355748393</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3396215308615502</v>
+        <v>0.3394790807191004</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3387263283890931</v>
+        <v>0.3380387762541712</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3371432571782129</v>
+        <v>0.3369862713069407</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.3289116952990536</v>
+        <v>0.3289250499999081</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.3282963054885448</v>
+        <v>0.3267708693056852</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.3189884040134103</v>
+        <v>0.3191538299852885</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.3187651226350259</v>
+        <v>0.3184793563918131</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.317169438888864</v>
+        <v>0.3174098235042486</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.3082472560141025</v>
+        <v>0.3086937256518945</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.3020079567891287</v>
+        <v>0.3021285413156543</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.3018509839360095</v>
+        <v>0.3020079567891287</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2964763874645679</v>
+        <v>0.3018509839360095</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2955068679120125</v>
+        <v>0.2964763874645679</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2947679241416832</v>
+        <v>0.295646728051874</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.294382965245771</v>
+        <v>0.2952034411592039</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.290111124397634</v>
+        <v>0.2935390316730491</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2884520584815169</v>
+        <v>0.290111124397634</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2877799079266163</v>
+        <v>0.2878982511218828</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2816859708913679</v>
+        <v>0.2832244324298296</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.280825756864387</v>
+        <v>0.2805713944017674</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2805713944017674</v>
+        <v>0.2803640952766748</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2776492277200098</v>
+        <v>0.2791876892584713</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2685005927542898</v>
+        <v>0.2692400291548946</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.2666316553440549</v>
+        <v>0.2667855014979006</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2631403904138079</v>
+        <v>0.2629034407374995</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2595452667968836</v>
+        <v>0.2593480281381073</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.2591364851513078</v>
+        <v>0.2590103817465148</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.2545920555279499</v>
+        <v>0.2523407661481913</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.2489164143155995</v>
+        <v>0.2493143711733068</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.2299784202679407</v>
+        <v>0.2299732959059775</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.2291708434310171</v>
+        <v>0.2289019905784266</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.2271664470384271</v>
+        <v>0.2271689761548803</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.2263559634893877</v>
+        <v>0.2265532021481649</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.2190263905563559</v>
+        <v>0.2188432403732057</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.2091348925803831</v>
+        <v>0.2091448934137854</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.2029260462038494</v>
+        <v>0.2028234821012846</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.1812948501651572</v>
+        <v>0.1810839503620318</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.1764002943278939</v>
+        <v>0.1762361447519789</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1749378377521471</v>
+        <v>0.1748473400145909</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1745340090078094</v>
+        <v>0.1747939565274594</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1661769874162484</v>
+        <v>0.1663590602453802</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1633262407720208</v>
+        <v>0.1630327545810977</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1421951195791904</v>
+        <v>0.1423300723457219</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1210736106885337</v>
+        <v>0.1209837663919979</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1006099437485448</v>
+        <v>0.1006818344746414</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.05615426417502345</v>
+        <v>0.05607656409732442</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>0.04057747505323017</v>
+        <v>0.04041637518818386</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>0.03903767183613982</v>
+        <v>0.03903918013176599</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -7822,7 +7822,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>0.02449901414599398</v>
+        <v>0.02503805396197456</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -7830,7 +7830,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>0.01591693996674137</v>
+        <v>0.01580881485789898</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -7838,7 +7838,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>0.008153976595110191</v>
+        <v>0.00822632572269244</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -7846,7 +7846,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>0.008147832787056775</v>
+        <v>0.008153976595110191</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -7854,7 +7854,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>0.007179543372497488</v>
+        <v>0.005817400180719634</v>
       </c>
     </row>
     <row r="681" spans="1:2">
